--- a/xlsx/a69_f25UPPachuca.xlsx
+++ b/xlsx/a69_f25UPPachuca.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -174,22 +174,22 @@
     <t>Subdirección de Recursos Financieros (UPP)</t>
   </si>
   <si>
-    <t>http://www.upp.edu.mx/leygralcontabilidad/</t>
-  </si>
-  <si>
-    <t>OFICINA Y NEGOCIOS ONNE, S.A. DE C.V.</t>
-  </si>
-  <si>
-    <t>Velazquez</t>
-  </si>
-  <si>
-    <t>De la Rosa</t>
-  </si>
-  <si>
-    <t>Bianey</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_6tTwZpFWeld1Nj_l-voL1dEsa8O9YmH/view?usp=sharing</t>
+    <t>http://www.upp.edu.mx/auditoriaexterna/mc/2020/dictamen-upp-ejercicio-2020.pdf</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/leygralcontabilidad/estados_financieros.php</t>
+  </si>
+  <si>
+    <t>VIOLETA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>ARRIAGA</t>
+  </si>
+  <si>
+    <t>SERVICIOS DE CONTABILIDAD Y AUDITORIA, VIOLETA MARTINEZ ARRIAGA</t>
   </si>
 </sst>
 </file>
@@ -244,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -272,7 +272,37 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -281,30 +311,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,39 +371,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,142 +482,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -594,30 +649,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="N2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="85.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="68" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="73.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="78.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="73.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38.7109375" customWidth="1"/>
+    <col min="18" max="18" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -626,42 +681,38 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -776,26 +827,26 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -810,7 +861,7 @@
       <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -853,74 +904,75 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:18" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D8" s="6">
         <v>2020</v>
       </c>
-      <c r="B8" s="6">
-        <v>43831</v>
-      </c>
-      <c r="C8" s="6">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2019</v>
-      </c>
       <c r="E8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="8">
+        <v>44264</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="6">
-        <v>43830</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="6">
-        <v>43961</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>43961</v>
+      <c r="P8" s="5">
+        <v>44298</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>44298</v>
       </c>
       <c r="R8" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A6:R6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1"/>
     <hyperlink ref="G8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f25UPPachuca.xlsx
+++ b/xlsx/a69_f25UPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -174,29 +169,29 @@
     <t>Subdirección de Recursos Financieros (UPP)</t>
   </si>
   <si>
-    <t>http://www.upp.edu.mx/auditoriaexterna/mc/2020/dictamen-upp-ejercicio-2020.pdf</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/leygralcontabilidad/estados_financieros.php</t>
-  </si>
-  <si>
-    <t>VIOLETA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>ARRIAGA</t>
-  </si>
-  <si>
-    <t>SERVICIOS DE CONTABILIDAD Y AUDITORIA, VIOLETA MARTINEZ ARRIAGA</t>
+    <t xml:space="preserve">Callejas </t>
+  </si>
+  <si>
+    <t>López</t>
+  </si>
+  <si>
+    <t>Hipólito</t>
+  </si>
+  <si>
+    <t>Soluciones Corporativas Nacionales,S.C.</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/auditoriaexterna/</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/estados_financieros.php</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -215,6 +210,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -244,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -268,28 +268,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -297,51 +284,50 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -371,39 +357,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,166 +468,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -649,30 +611,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83" customWidth="1"/>
+    <col min="5" max="5" width="67.7109375" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="85.85546875" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="68" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="73.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="78.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="42.42578125" customWidth="1"/>
+    <col min="18" max="18" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -681,38 +643,38 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -827,26 +789,26 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -861,7 +823,7 @@
       <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -904,59 +866,59 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D8" s="2">
         <v>2021</v>
       </c>
-      <c r="B8" s="5">
-        <v>44197</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44561</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="12">
+        <v>44649</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="8">
-        <v>44264</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="N8" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="5">
-        <v>44298</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>44298</v>
-      </c>
-      <c r="R8" s="4"/>
+      <c r="P8" s="3">
+        <v>44659</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -973,6 +935,6 @@
     <hyperlink ref="G8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f25UPPachuca.xlsx
+++ b/xlsx/a69_f25UPPachuca.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2023\SIPOT\1er Trimestre 2023\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7350"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>44270</t>
   </si>
@@ -169,29 +174,35 @@
     <t>Subdirección de Recursos Financieros (UPP)</t>
   </si>
   <si>
-    <t xml:space="preserve">Callejas </t>
-  </si>
-  <si>
-    <t>López</t>
-  </si>
-  <si>
-    <t>Hipólito</t>
-  </si>
-  <si>
-    <t>Soluciones Corporativas Nacionales,S.C.</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/auditoriaexterna/</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/leygralcontabilidad/estados_financieros.php</t>
+    <t>http://www.upp.edu.mx/leygralcontabilidad/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1cSTBvkR0g28geRRe8gNATtJHlWD7G0mq</t>
+  </si>
+  <si>
+    <t>25 recomendaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juana Judith </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerrero </t>
+  </si>
+  <si>
+    <t>Tello</t>
+  </si>
+  <si>
+    <t>Despacho Contable, Administracuión y Fiscal</t>
+  </si>
+  <si>
+    <t>Esta en proceso de entrega de documentación para la solventación y seguimiento a las recomendaciones emitidas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -210,11 +221,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -244,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -268,15 +274,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -284,50 +303,51 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -357,39 +377,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,142 +488,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -611,30 +655,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
+    <col min="5" max="5" width="75.85546875" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.140625" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="85.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="68" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="73.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="78.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="73.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="46.28515625" customWidth="1"/>
+    <col min="18" max="18" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -643,38 +687,38 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -789,26 +833,26 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -823,7 +867,7 @@
       <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -866,59 +910,61 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:18" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44927</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D8" s="5">
         <v>2022</v>
       </c>
-      <c r="B8" s="3">
-        <v>44562</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2021</v>
-      </c>
       <c r="E8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="7">
+        <v>45014</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="12">
-        <v>44649</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="4" t="s">
+      <c r="N8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="3">
-        <v>44659</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>44659</v>
-      </c>
-      <c r="R8" s="2"/>
+      <c r="P8" s="4">
+        <v>45026</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>45026</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -935,6 +981,6 @@
     <hyperlink ref="G8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>